--- a/biology/Médecine/Jean_Bardet_(homme_politique)/Jean_Bardet_(homme_politique).xlsx
+++ b/biology/Médecine/Jean_Bardet_(homme_politique)/Jean_Bardet_(homme_politique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean Bardet, né le 22 juin 1941 à Paris, est un professeur de médecine et homme politique français. Il a été membre du Comité consultatif national d'éthique.
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Bardet est cardiologue et professeur des universités – praticien hospitalier à l'université Pierre-et-Marie-Curie; chef du service de cardiologie de l'hôpital Saint-Antoine à Paris de 1997 à 2007.
 Élu député du Val-d'Oise en 1986 en remplacement d'Hélène Missoffe ; il est réélu en 1993, 1997, 2002 et 2007 dans la 3e circonscription du Val-d'Oise. Il faisait partie du groupe: Rassemblement pour la République (RPR) puis Union pour un mouvement populaire (UMP). Il a été membre de la commission des affaires culturelles, familiales et sociales, puis familiales et sociales ; membre titulaire (au titre de l'Assemblée Nationale) du conseil d'orientation de l'Agence de biomédecine, membre de l'Office parlementaire d'évaluation des choix scientifiques technologiques et coprésident du groupe d'études sur la route et la sécurité routière.
@@ -551,20 +565,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anciens mandats et fonctions à l'Assemblée nationale
-Élu le 16/03/1986 - Mandat du 30/09/1986 (élections générales) au 14/05/1988 (Fin de législature)
+          <t>Anciens mandats et fonctions à l'Assemblée nationale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Élu le 16/03/1986 - Mandat du 30/09/1986 (élections générales) au 14/05/1988 (Fin de législature)
 Réélu le 28/03/1993 - Mandat du 02/04/1993 (élections générales) au 21/04/1997 (Fin de législature)
 Réélu le 01/06/1997 - Mandat du 01/06/1997 (élections générales) au 18/06/2002 (Fin de législature)
 Réélu le 16/06/2002 - Mandat du 19/06/2002 (élections générales) au 19/06/2007 (Fin de législature)
-Député de la 3e circonscription du Val-d'Oise. Battu aux dernières législatives de juin 2012 alors qu'il briguait un cinquième mandat, il laisse sa place au candidat MUP Jean-Noël Carpentier
-Mandats locaux
-Conseil municipal du Plessis-Bouchard (Val-d'Oise), du 14/03/1983 au 12/03/1989 (Adjoint au Maire)
-Conseil municipal de Taverny (Val-d'Oise), du 06/03/1983 au 18/06/1995 (Membre)
-Conseil général du Val-d'Oise, du 18/03/1985 au 29/03/1992 (Membre du conseil général)
-Conseil régional d'Ile-de-France, du 17/03/1986 au 22/03/1992 et du 16/03/1998 au 28/03/2004 (Membre du conseil régional)
-Domaine diplomatique
-Il était membre du groupe d'études sur le problème du Tibet de Assemblée nationale[1]. et de nombreux autres groupes d'amitiés toujours dans un esprit non partisan et de paix. Il a fait partie de l'association" Chrétiens pour la Ve République" et à ce titre a fait de nombreux voyages en Irak où il a pu constater les conséquences désastreuses de l'embargo sur les populations civiles.
-</t>
+Député de la 3e circonscription du Val-d'Oise. Battu aux dernières législatives de juin 2012 alors qu'il briguait un cinquième mandat, il laisse sa place au candidat MUP Jean-Noël Carpentier</t>
         </is>
       </c>
     </row>
@@ -589,12 +600,90 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Mandats</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mandats locaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Conseil municipal du Plessis-Bouchard (Val-d'Oise), du 14/03/1983 au 12/03/1989 (Adjoint au Maire)
+Conseil municipal de Taverny (Val-d'Oise), du 06/03/1983 au 18/06/1995 (Membre)
+Conseil général du Val-d'Oise, du 18/03/1985 au 29/03/1992 (Membre du conseil général)
+Conseil régional d'Ile-de-France, du 17/03/1986 au 22/03/1992 et du 16/03/1998 au 28/03/2004 (Membre du conseil régional)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Bardet_(homme_politique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Bardet_(homme_politique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mandats</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Domaine diplomatique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il était membre du groupe d'études sur le problème du Tibet de Assemblée nationale. et de nombreux autres groupes d'amitiés toujours dans un esprit non partisan et de paix. Il a fait partie de l'association" Chrétiens pour la Ve République" et à ce titre a fait de nombreux voyages en Irak où il a pu constater les conséquences désastreuses de l'embargo sur les populations civiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Bardet_(homme_politique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Bardet_(homme_politique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (14 juillet 2018)[2]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (14 juillet 2018)</t>
         </is>
       </c>
     </row>
